--- a/data/pca/factorExposure/factorExposure_2009-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01748522924158815</v>
+        <v>0.0166852382855236</v>
       </c>
       <c r="C2">
-        <v>-0.001631190496861843</v>
+        <v>0.00114868052755664</v>
       </c>
       <c r="D2">
-        <v>-0.008958277159081166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009084821635400888</v>
+      </c>
+      <c r="E2">
+        <v>0.001841492114956614</v>
+      </c>
+      <c r="F2">
+        <v>-0.01199732614457017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08976783855353539</v>
+        <v>0.09173907003977275</v>
       </c>
       <c r="C4">
-        <v>-0.01998887225998732</v>
+        <v>0.01510579846007622</v>
       </c>
       <c r="D4">
-        <v>-0.07690346390141363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08186362290019474</v>
+      </c>
+      <c r="E4">
+        <v>0.02740209940949268</v>
+      </c>
+      <c r="F4">
+        <v>0.03285598450347245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.476701486085054e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.5150402609494e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001027767963085063</v>
+      </c>
+      <c r="E5">
+        <v>-2.333161318004433e-05</v>
+      </c>
+      <c r="F5">
+        <v>-5.842192266051357e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1531786411410776</v>
+        <v>0.1615944804009758</v>
       </c>
       <c r="C6">
-        <v>-0.03016063603158088</v>
+        <v>0.02938607225966995</v>
       </c>
       <c r="D6">
-        <v>0.03611636304864269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02606755485818109</v>
+      </c>
+      <c r="E6">
+        <v>0.008718247845685928</v>
+      </c>
+      <c r="F6">
+        <v>0.04058971036956905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0601415228891389</v>
+        <v>0.06235881176552357</v>
       </c>
       <c r="C7">
-        <v>-0.001915968323305787</v>
+        <v>-0.001366460832105397</v>
       </c>
       <c r="D7">
-        <v>-0.04863367645728937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0536417921872754</v>
+      </c>
+      <c r="E7">
+        <v>0.01502118880807676</v>
+      </c>
+      <c r="F7">
+        <v>0.04976448915697125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06140188715970651</v>
+        <v>0.0569434328276852</v>
       </c>
       <c r="C8">
-        <v>0.01009195031853779</v>
+        <v>-0.0119741725694104</v>
       </c>
       <c r="D8">
-        <v>-0.02555984536949636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03020561558172216</v>
+      </c>
+      <c r="E8">
+        <v>0.01786809786103968</v>
+      </c>
+      <c r="F8">
+        <v>-0.02820431944967362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06967835163888515</v>
+        <v>0.07132216691786737</v>
       </c>
       <c r="C9">
-        <v>-0.01594990734259222</v>
+        <v>0.01068366004912431</v>
       </c>
       <c r="D9">
-        <v>-0.07997268399737985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08568836440785876</v>
+      </c>
+      <c r="E9">
+        <v>0.02453840140516879</v>
+      </c>
+      <c r="F9">
+        <v>0.04948470011022163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08507981988940999</v>
+        <v>0.08690375341128646</v>
       </c>
       <c r="C10">
-        <v>-0.01605362316570508</v>
+        <v>0.02166726401491852</v>
       </c>
       <c r="D10">
-        <v>0.1672871085225622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1596001243790112</v>
+      </c>
+      <c r="E10">
+        <v>-0.03216466608808217</v>
+      </c>
+      <c r="F10">
+        <v>-0.05882453022984388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09108520031375558</v>
+        <v>0.08764733439675305</v>
       </c>
       <c r="C11">
-        <v>-0.01721672706225886</v>
+        <v>0.01184824840982966</v>
       </c>
       <c r="D11">
-        <v>-0.111166808678002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1179243919184755</v>
+      </c>
+      <c r="E11">
+        <v>0.04962464385598601</v>
+      </c>
+      <c r="F11">
+        <v>0.02657362388791058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09680004852184637</v>
+        <v>0.090607695201528</v>
       </c>
       <c r="C12">
-        <v>-0.01550634763940764</v>
+        <v>0.009284082184009891</v>
       </c>
       <c r="D12">
-        <v>-0.1184091807160244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1328992288517452</v>
+      </c>
+      <c r="E12">
+        <v>0.04908403920368069</v>
+      </c>
+      <c r="F12">
+        <v>0.03281106691873763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04478708601663692</v>
+        <v>0.04345825253591884</v>
       </c>
       <c r="C13">
-        <v>-0.006598873885822785</v>
+        <v>0.002702445136389744</v>
       </c>
       <c r="D13">
-        <v>-0.04392028553013136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05411913880423398</v>
+      </c>
+      <c r="E13">
+        <v>-0.0005058917849227496</v>
+      </c>
+      <c r="F13">
+        <v>0.004760729451266439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.019542909962018</v>
+        <v>0.02331340484902367</v>
       </c>
       <c r="C14">
-        <v>-0.01520225994256601</v>
+        <v>0.0138888443501079</v>
       </c>
       <c r="D14">
-        <v>-0.03166606542771805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0324507699939143</v>
+      </c>
+      <c r="E14">
+        <v>0.01966948646452757</v>
+      </c>
+      <c r="F14">
+        <v>0.012473238118164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03450143763435849</v>
+        <v>0.03426304389873857</v>
       </c>
       <c r="C15">
-        <v>-0.007573260144977028</v>
+        <v>0.005668851829514546</v>
       </c>
       <c r="D15">
-        <v>-0.04545221665968625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04674306937651268</v>
+      </c>
+      <c r="E15">
+        <v>0.008441040092246617</v>
+      </c>
+      <c r="F15">
+        <v>0.02992213176769575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07520465067581231</v>
+        <v>0.07256230838703484</v>
       </c>
       <c r="C16">
-        <v>-0.007646853719264709</v>
+        <v>0.001934347175097211</v>
       </c>
       <c r="D16">
-        <v>-0.1155690659305811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1290168601264245</v>
+      </c>
+      <c r="E16">
+        <v>0.06386948378766573</v>
+      </c>
+      <c r="F16">
+        <v>0.02949605486611078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001136790137493412</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003374792180595614</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001994918711730863</v>
+      </c>
+      <c r="E17">
+        <v>0.001549864544059542</v>
+      </c>
+      <c r="F17">
+        <v>-0.002221570416898975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02426929183453487</v>
+        <v>0.04192529207259722</v>
       </c>
       <c r="C18">
-        <v>0.001990479295159605</v>
+        <v>-0.002073065686348218</v>
       </c>
       <c r="D18">
-        <v>-0.02307582283906215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01591599936238145</v>
+      </c>
+      <c r="E18">
+        <v>-0.005932617406743662</v>
+      </c>
+      <c r="F18">
+        <v>-0.009085855937524501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06382997605655714</v>
+        <v>0.06209405584823583</v>
       </c>
       <c r="C20">
-        <v>-0.005222158655750934</v>
+        <v>0.00118656693543349</v>
       </c>
       <c r="D20">
-        <v>-0.07238687966987586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07916608565370464</v>
+      </c>
+      <c r="E20">
+        <v>0.06025593182938532</v>
+      </c>
+      <c r="F20">
+        <v>0.03099524428203946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04093470643935614</v>
+        <v>0.0423589527515472</v>
       </c>
       <c r="C21">
-        <v>-0.009781835382842817</v>
+        <v>0.007043769458314719</v>
       </c>
       <c r="D21">
-        <v>-0.03270178374866977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03555171154420091</v>
+      </c>
+      <c r="E21">
+        <v>0.0006148061696997718</v>
+      </c>
+      <c r="F21">
+        <v>-0.02415192745662439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04129324663356321</v>
+        <v>0.04310331421626491</v>
       </c>
       <c r="C22">
-        <v>-0.001446810610865209</v>
+        <v>0.001156804706229788</v>
       </c>
       <c r="D22">
-        <v>-0.001021321093047635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.007207931979603396</v>
+      </c>
+      <c r="E22">
+        <v>0.0376401906406308</v>
+      </c>
+      <c r="F22">
+        <v>-0.04822100730376101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04124856054191414</v>
+        <v>0.04307267874632675</v>
       </c>
       <c r="C23">
-        <v>-0.001433330941996678</v>
+        <v>0.001145370080471378</v>
       </c>
       <c r="D23">
-        <v>-0.001050658163409335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007222676497609777</v>
+      </c>
+      <c r="E23">
+        <v>0.03766849105119906</v>
+      </c>
+      <c r="F23">
+        <v>-0.04827469641416316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08254119396668731</v>
+        <v>0.07839116455603749</v>
       </c>
       <c r="C24">
-        <v>-0.008294514627844153</v>
+        <v>0.002753010172660879</v>
       </c>
       <c r="D24">
-        <v>-0.1154038387004031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1210284524546503</v>
+      </c>
+      <c r="E24">
+        <v>0.05131657579223365</v>
+      </c>
+      <c r="F24">
+        <v>0.0322158808230122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08719340869677261</v>
+        <v>0.08345950521524045</v>
       </c>
       <c r="C25">
-        <v>-0.01057683627721549</v>
+        <v>0.005545201187558401</v>
       </c>
       <c r="D25">
-        <v>-0.1031200626474676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1101976554483439</v>
+      </c>
+      <c r="E25">
+        <v>0.03422602348167841</v>
+      </c>
+      <c r="F25">
+        <v>0.02912002045317487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05797114872696233</v>
+        <v>0.06053960297131813</v>
       </c>
       <c r="C26">
-        <v>-0.01814094583285222</v>
+        <v>0.01486712938100824</v>
       </c>
       <c r="D26">
-        <v>-0.03419019796286515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04452229536829834</v>
+      </c>
+      <c r="E26">
+        <v>0.03139770968899524</v>
+      </c>
+      <c r="F26">
+        <v>-0.006598949322057153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1333557023874687</v>
+        <v>0.1430213915755433</v>
       </c>
       <c r="C28">
-        <v>-0.01514378210837615</v>
+        <v>0.02360007015030182</v>
       </c>
       <c r="D28">
-        <v>0.2657001385797801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2594177947346284</v>
+      </c>
+      <c r="E28">
+        <v>-0.06614644881334966</v>
+      </c>
+      <c r="F28">
+        <v>0.004784264114894955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02584703325426075</v>
+        <v>0.02840423156375111</v>
       </c>
       <c r="C29">
-        <v>-0.009939276727573472</v>
+        <v>0.009079957394090564</v>
       </c>
       <c r="D29">
-        <v>-0.02928994840754213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02976990177005112</v>
+      </c>
+      <c r="E29">
+        <v>0.01700104932734836</v>
+      </c>
+      <c r="F29">
+        <v>-0.01285780110190105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05939461561979077</v>
+        <v>0.05629701064429946</v>
       </c>
       <c r="C30">
-        <v>-0.00784264362445837</v>
+        <v>0.002713696670923199</v>
       </c>
       <c r="D30">
-        <v>-0.07943318074720836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08732447445360925</v>
+      </c>
+      <c r="E30">
+        <v>0.0137706172407238</v>
+      </c>
+      <c r="F30">
+        <v>0.07929940051020251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05068723032044842</v>
+        <v>0.05104270416072476</v>
       </c>
       <c r="C31">
-        <v>-0.01755047245415591</v>
+        <v>0.01627171637898286</v>
       </c>
       <c r="D31">
-        <v>-0.02150242859866046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.024247320650991</v>
+      </c>
+      <c r="E31">
+        <v>0.0289392952600875</v>
+      </c>
+      <c r="F31">
+        <v>-0.0005276430459882971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04798784367651098</v>
+        <v>0.05157353111447569</v>
       </c>
       <c r="C32">
-        <v>-0.002150749879572418</v>
+        <v>-0.001203575204596071</v>
       </c>
       <c r="D32">
-        <v>-0.02858054992660448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03370049688100199</v>
+      </c>
+      <c r="E32">
+        <v>0.03441368477207452</v>
+      </c>
+      <c r="F32">
+        <v>0.002903706888200438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09057462226007641</v>
+        <v>0.08978322632117348</v>
       </c>
       <c r="C33">
-        <v>-0.01357392330899179</v>
+        <v>0.00759995364887884</v>
       </c>
       <c r="D33">
-        <v>-0.09006708177889385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.104099373185033</v>
+      </c>
+      <c r="E33">
+        <v>0.04638790852445226</v>
+      </c>
+      <c r="F33">
+        <v>0.04463134196615288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06915314458488134</v>
+        <v>0.06714484758490911</v>
       </c>
       <c r="C34">
-        <v>-0.01566292012042635</v>
+        <v>0.01085624811038469</v>
       </c>
       <c r="D34">
-        <v>-0.09671341253396909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1087721874682638</v>
+      </c>
+      <c r="E34">
+        <v>0.03675856017912266</v>
+      </c>
+      <c r="F34">
+        <v>0.03631935522412164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02541924215619324</v>
+        <v>0.02688136833399127</v>
       </c>
       <c r="C35">
-        <v>-0.0039198117720195</v>
+        <v>0.003402347596496709</v>
       </c>
       <c r="D35">
-        <v>-0.008055691183468104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01155260430424863</v>
+      </c>
+      <c r="E35">
+        <v>0.01481452557077741</v>
+      </c>
+      <c r="F35">
+        <v>0.0006520890555772335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02525838838351157</v>
+        <v>0.02873242635828001</v>
       </c>
       <c r="C36">
-        <v>-0.008222599042807152</v>
+        <v>0.007093468115874462</v>
       </c>
       <c r="D36">
-        <v>-0.03840907698136194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03967179312681445</v>
+      </c>
+      <c r="E36">
+        <v>0.01862784549618745</v>
+      </c>
+      <c r="F36">
+        <v>0.01553544462210705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001924517175990077</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006265594673096339</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002922397455905707</v>
+      </c>
+      <c r="E37">
+        <v>0.0001243642098614568</v>
+      </c>
+      <c r="F37">
+        <v>-0.001608828860447634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1109904633661252</v>
+        <v>0.09966087205269188</v>
       </c>
       <c r="C39">
-        <v>-0.02310106114760795</v>
+        <v>0.01654689448619426</v>
       </c>
       <c r="D39">
-        <v>-0.1481078024775751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1516541117507093</v>
+      </c>
+      <c r="E39">
+        <v>0.06065984966032216</v>
+      </c>
+      <c r="F39">
+        <v>0.02272412429052758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03876718056174227</v>
+        <v>0.04399869438933483</v>
       </c>
       <c r="C40">
-        <v>-0.009468628876271817</v>
+        <v>0.00799982158023721</v>
       </c>
       <c r="D40">
-        <v>-0.02376595202643573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03269016342380324</v>
+      </c>
+      <c r="E40">
+        <v>0.002785836398217068</v>
+      </c>
+      <c r="F40">
+        <v>-0.01523781441389048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02459186333032043</v>
+        <v>0.02644526331369526</v>
       </c>
       <c r="C41">
-        <v>-0.007425869683701443</v>
+        <v>0.006816012563279772</v>
       </c>
       <c r="D41">
-        <v>-0.00748693561509097</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009788252537306719</v>
+      </c>
+      <c r="E41">
+        <v>0.01242582525897197</v>
+      </c>
+      <c r="F41">
+        <v>-0.007316319902114553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04181196129260054</v>
+        <v>0.03994168007015334</v>
       </c>
       <c r="C43">
-        <v>-0.008566876154537426</v>
+        <v>0.007844868809072109</v>
       </c>
       <c r="D43">
-        <v>-0.01638508782403655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01898598379843151</v>
+      </c>
+      <c r="E43">
+        <v>0.02646775710473595</v>
+      </c>
+      <c r="F43">
+        <v>-0.01589479048447349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06797318678301308</v>
+        <v>0.07752429837297446</v>
       </c>
       <c r="C44">
-        <v>-0.0242137896158856</v>
+        <v>0.02005521937811326</v>
       </c>
       <c r="D44">
-        <v>-0.09541003364502788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0959673440859154</v>
+      </c>
+      <c r="E44">
+        <v>0.06130813298672172</v>
+      </c>
+      <c r="F44">
+        <v>0.1688096677957738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02126438038186235</v>
+        <v>0.02403519888405713</v>
       </c>
       <c r="C46">
-        <v>-0.004449126502918318</v>
+        <v>0.003684232775385343</v>
       </c>
       <c r="D46">
-        <v>-0.008701742235800305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01199004498656156</v>
+      </c>
+      <c r="E46">
+        <v>0.0295864110580442</v>
+      </c>
+      <c r="F46">
+        <v>-0.004415618077749207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0537404549617548</v>
+        <v>0.05294566623219404</v>
       </c>
       <c r="C47">
-        <v>-0.005608584144057876</v>
+        <v>0.004697790803750564</v>
       </c>
       <c r="D47">
-        <v>-0.007128725235383477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01093981450137696</v>
+      </c>
+      <c r="E47">
+        <v>0.02419815986670409</v>
+      </c>
+      <c r="F47">
+        <v>-0.03126063025193247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04846161797446746</v>
+        <v>0.05109600547224587</v>
       </c>
       <c r="C48">
-        <v>-0.005203964760885024</v>
+        <v>0.002513040700645691</v>
       </c>
       <c r="D48">
-        <v>-0.04707316115218498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0500464287568117</v>
+      </c>
+      <c r="E48">
+        <v>-0.00376729866912958</v>
+      </c>
+      <c r="F48">
+        <v>0.01293732306731644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1985869697660985</v>
+        <v>0.2000791627583309</v>
       </c>
       <c r="C49">
-        <v>-0.02334316262635404</v>
+        <v>0.02142071416537355</v>
       </c>
       <c r="D49">
-        <v>0.01311111357370227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004352099570193339</v>
+      </c>
+      <c r="E49">
+        <v>0.03067478198235581</v>
+      </c>
+      <c r="F49">
+        <v>0.04985920409171195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04921929537370971</v>
+        <v>0.05118619183525216</v>
       </c>
       <c r="C50">
-        <v>-0.01319662639584014</v>
+        <v>0.01188779541649676</v>
       </c>
       <c r="D50">
-        <v>-0.02114026532719523</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02365686879128227</v>
+      </c>
+      <c r="E50">
+        <v>0.03144546166686248</v>
+      </c>
+      <c r="F50">
+        <v>0.009921694414401097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1551350892854637</v>
+        <v>0.1481785035884348</v>
       </c>
       <c r="C52">
-        <v>-0.0214360171682453</v>
+        <v>0.01944705854385459</v>
       </c>
       <c r="D52">
-        <v>-0.04166665314592468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04284990215802965</v>
+      </c>
+      <c r="E52">
+        <v>0.02050926182145612</v>
+      </c>
+      <c r="F52">
+        <v>0.04184965128121686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1744050755905028</v>
+        <v>0.1687624868551499</v>
       </c>
       <c r="C53">
-        <v>-0.02247003193479532</v>
+        <v>0.0225701398638786</v>
       </c>
       <c r="D53">
-        <v>-0.005744444169406134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006248167030578734</v>
+      </c>
+      <c r="E53">
+        <v>0.02716737374589518</v>
+      </c>
+      <c r="F53">
+        <v>0.074915508118597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01763956638425073</v>
+        <v>0.01961240659251449</v>
       </c>
       <c r="C54">
-        <v>-0.01229483281283978</v>
+        <v>0.01113060437689165</v>
       </c>
       <c r="D54">
-        <v>-0.02972528636816762</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03040703605149034</v>
+      </c>
+      <c r="E54">
+        <v>0.02200550914287511</v>
+      </c>
+      <c r="F54">
+        <v>-0.002261649712989458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1182999760958211</v>
+        <v>0.1165974905874019</v>
       </c>
       <c r="C55">
-        <v>-0.01979238909162608</v>
+        <v>0.0198141553216223</v>
       </c>
       <c r="D55">
-        <v>-0.004665992335794223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008516745387484896</v>
+      </c>
+      <c r="E55">
+        <v>0.02553242675666886</v>
+      </c>
+      <c r="F55">
+        <v>0.0464882176326555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808581687303588</v>
+        <v>0.1758789068466403</v>
       </c>
       <c r="C56">
-        <v>-0.02057461301046722</v>
+        <v>0.02085730286876388</v>
       </c>
       <c r="D56">
-        <v>0.006800871327381619</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002277057875769955</v>
+      </c>
+      <c r="E56">
+        <v>0.03108025695202908</v>
+      </c>
+      <c r="F56">
+        <v>0.05558710616433776</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04706509545504478</v>
+        <v>0.04568652177471492</v>
       </c>
       <c r="C58">
-        <v>-0.005159546573628113</v>
+        <v>0.0002803214008851738</v>
       </c>
       <c r="D58">
-        <v>-0.06620598155351626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07615425513216655</v>
+      </c>
+      <c r="E58">
+        <v>0.03474261090287014</v>
+      </c>
+      <c r="F58">
+        <v>-0.03732053291707296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1593545235785127</v>
+        <v>0.1664027119944429</v>
       </c>
       <c r="C59">
-        <v>-0.01684311118791966</v>
+        <v>0.02379315437399746</v>
       </c>
       <c r="D59">
-        <v>0.2253031032918785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2171882668014151</v>
+      </c>
+      <c r="E59">
+        <v>-0.04964440485820887</v>
+      </c>
+      <c r="F59">
+        <v>-0.04123007794960654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2382439053794776</v>
+        <v>0.2301038679622978</v>
       </c>
       <c r="C60">
-        <v>-0.004697398342438688</v>
+        <v>0.00155683216726107</v>
       </c>
       <c r="D60">
-        <v>-0.03527671607959892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03855300253759082</v>
+      </c>
+      <c r="E60">
+        <v>0.001844530817343109</v>
+      </c>
+      <c r="F60">
+        <v>0.006011243070324403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08136876827605347</v>
+        <v>0.07436004039709894</v>
       </c>
       <c r="C61">
-        <v>-0.01681258668177536</v>
+        <v>0.01128117355562152</v>
       </c>
       <c r="D61">
-        <v>-0.1105104359651424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1168040791842933</v>
+      </c>
+      <c r="E61">
+        <v>0.03860105351310904</v>
+      </c>
+      <c r="F61">
+        <v>0.008073936770256293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.173110454202272</v>
+        <v>0.1692243652250551</v>
       </c>
       <c r="C62">
-        <v>-0.02433782528935877</v>
+        <v>0.02351300192124292</v>
       </c>
       <c r="D62">
-        <v>-0.0003714557629813238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00666762192833188</v>
+      </c>
+      <c r="E62">
+        <v>0.03366423026200034</v>
+      </c>
+      <c r="F62">
+        <v>0.04140037970427492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0416348145129502</v>
+        <v>0.04565851181717247</v>
       </c>
       <c r="C63">
-        <v>-0.005544173811452234</v>
+        <v>0.002096236433284191</v>
       </c>
       <c r="D63">
-        <v>-0.04906058744980948</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06001767566956324</v>
+      </c>
+      <c r="E63">
+        <v>0.02375139456927049</v>
+      </c>
+      <c r="F63">
+        <v>0.001193556389040834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1140548669460447</v>
+        <v>0.1108875987332442</v>
       </c>
       <c r="C64">
-        <v>-0.01662657980346214</v>
+        <v>0.01338755585988015</v>
       </c>
       <c r="D64">
-        <v>-0.0334109534421379</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04166218973344821</v>
+      </c>
+      <c r="E64">
+        <v>0.02432855094101174</v>
+      </c>
+      <c r="F64">
+        <v>0.02764586591244143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1447881277057681</v>
+        <v>0.1518055488851002</v>
       </c>
       <c r="C65">
-        <v>-0.03646676515196368</v>
+        <v>0.0361993099842141</v>
       </c>
       <c r="D65">
-        <v>0.05879593196302789</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0456797163083613</v>
+      </c>
+      <c r="E65">
+        <v>0.003970075928557724</v>
+      </c>
+      <c r="F65">
+        <v>0.03780592731213153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1336201647827818</v>
+        <v>0.1195940734426313</v>
       </c>
       <c r="C66">
-        <v>-0.0215606408255651</v>
+        <v>0.01479394913612096</v>
       </c>
       <c r="D66">
-        <v>-0.1307598069259671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1410012653123594</v>
+      </c>
+      <c r="E66">
+        <v>0.06499806868884471</v>
+      </c>
+      <c r="F66">
+        <v>0.02855809651772056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06396161543220423</v>
+        <v>0.05644493631240893</v>
       </c>
       <c r="C67">
-        <v>-0.00641978243483859</v>
+        <v>0.004040467227506635</v>
       </c>
       <c r="D67">
-        <v>-0.054788458413174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05856121376130471</v>
+      </c>
+      <c r="E67">
+        <v>0.02160160056918045</v>
+      </c>
+      <c r="F67">
+        <v>-0.03421757142156606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1067822996196269</v>
+        <v>0.1174270231546179</v>
       </c>
       <c r="C68">
-        <v>-0.02525572437391931</v>
+        <v>0.03439044741640895</v>
       </c>
       <c r="D68">
-        <v>0.2641729022893229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2609110473651495</v>
+      </c>
+      <c r="E68">
+        <v>-0.08795085199152286</v>
+      </c>
+      <c r="F68">
+        <v>0.0005267462539021305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03839647620538289</v>
+        <v>0.03752461746445111</v>
       </c>
       <c r="C69">
-        <v>-0.002166169915105455</v>
+        <v>0.001302221347365601</v>
       </c>
       <c r="D69">
-        <v>-0.006884990020616814</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008349497315250018</v>
+      </c>
+      <c r="E69">
+        <v>0.02572590300469574</v>
+      </c>
+      <c r="F69">
+        <v>7.100501547165846e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06754514606052876</v>
+        <v>0.0671288175298424</v>
       </c>
       <c r="C70">
-        <v>0.02421241023818747</v>
+        <v>-0.02643855575229268</v>
       </c>
       <c r="D70">
-        <v>-0.0211933355587801</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02706144777043801</v>
+      </c>
+      <c r="E70">
+        <v>-0.02389110997973246</v>
+      </c>
+      <c r="F70">
+        <v>-0.1826913053849307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1255065120921426</v>
+        <v>0.1374035093833393</v>
       </c>
       <c r="C71">
-        <v>-0.02995120104927419</v>
+        <v>0.03901789472184291</v>
       </c>
       <c r="D71">
-        <v>0.2804821950041494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2704352532558939</v>
+      </c>
+      <c r="E71">
+        <v>-0.09814290440597964</v>
+      </c>
+      <c r="F71">
+        <v>0.00581966863705739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1367077327384918</v>
+        <v>0.1440965422652245</v>
       </c>
       <c r="C72">
-        <v>-0.02886705200387354</v>
+        <v>0.0293206624380297</v>
       </c>
       <c r="D72">
-        <v>-0.00109457511917171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003422799853552885</v>
+      </c>
+      <c r="E72">
+        <v>0.03932952024915531</v>
+      </c>
+      <c r="F72">
+        <v>0.02810856634043957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2026617514128241</v>
+        <v>0.2034497313024903</v>
       </c>
       <c r="C73">
-        <v>-0.01822757253839973</v>
+        <v>0.01453612026845332</v>
       </c>
       <c r="D73">
-        <v>-0.007226700545039259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01783828628514028</v>
+      </c>
+      <c r="E73">
+        <v>0.06338042578524031</v>
+      </c>
+      <c r="F73">
+        <v>0.0441357675445697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09145258124549993</v>
+        <v>0.09254508510894768</v>
       </c>
       <c r="C74">
-        <v>-0.01475377713350878</v>
+        <v>0.01423439223880038</v>
       </c>
       <c r="D74">
-        <v>-0.01485030210087934</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01693082236352386</v>
+      </c>
+      <c r="E74">
+        <v>0.04192060267081985</v>
+      </c>
+      <c r="F74">
+        <v>0.05250096602427832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1335453283992396</v>
+        <v>0.1257984745152091</v>
       </c>
       <c r="C75">
-        <v>-0.0320954163714808</v>
+        <v>0.03025497990190625</v>
       </c>
       <c r="D75">
-        <v>-0.02383907684213021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02996059824395341</v>
+      </c>
+      <c r="E75">
+        <v>0.05578288698339984</v>
+      </c>
+      <c r="F75">
+        <v>0.02175035654335715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.081949624421084</v>
+        <v>0.0920175425188931</v>
       </c>
       <c r="C77">
-        <v>-0.01436158005617015</v>
+        <v>0.00887188475191103</v>
       </c>
       <c r="D77">
-        <v>-0.1133994779348931</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1170990296924861</v>
+      </c>
+      <c r="E77">
+        <v>0.04675391884572509</v>
+      </c>
+      <c r="F77">
+        <v>0.03684215353640611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1021861270342839</v>
+        <v>0.1020054199439087</v>
       </c>
       <c r="C78">
-        <v>-0.0447392465622635</v>
+        <v>0.04037509337385597</v>
       </c>
       <c r="D78">
-        <v>-0.1129843301214197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1126041199398382</v>
+      </c>
+      <c r="E78">
+        <v>0.07573130799892916</v>
+      </c>
+      <c r="F78">
+        <v>0.05358203120400436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1666678114985435</v>
+        <v>0.1634148870887554</v>
       </c>
       <c r="C79">
-        <v>-0.02696394414577628</v>
+        <v>0.02587358764834936</v>
       </c>
       <c r="D79">
-        <v>-0.006169537268900361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01230306948296993</v>
+      </c>
+      <c r="E79">
+        <v>0.04308471547022938</v>
+      </c>
+      <c r="F79">
+        <v>0.01326297151388562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08124789228410241</v>
+        <v>0.07969093450379493</v>
       </c>
       <c r="C80">
-        <v>-0.002777144030493149</v>
+        <v>-8.137133894489752e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05342073135851304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05401713894405697</v>
+      </c>
+      <c r="E80">
+        <v>0.03610584232094943</v>
+      </c>
+      <c r="F80">
+        <v>-0.02720773645497894</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1211625718807158</v>
+        <v>0.1160378701827656</v>
       </c>
       <c r="C81">
-        <v>-0.03421270530314718</v>
+        <v>0.03379183077451374</v>
       </c>
       <c r="D81">
-        <v>-0.00782561612715417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01245160658388967</v>
+      </c>
+      <c r="E81">
+        <v>0.05308685354272338</v>
+      </c>
+      <c r="F81">
+        <v>0.01841420345471059</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1663465704357145</v>
+        <v>0.1649729942845358</v>
       </c>
       <c r="C82">
-        <v>-0.02759806536724692</v>
+        <v>0.02817154406575105</v>
       </c>
       <c r="D82">
-        <v>-0.005788995890325592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003658402998708332</v>
+      </c>
+      <c r="E82">
+        <v>0.02558418821617198</v>
+      </c>
+      <c r="F82">
+        <v>0.08290255895967094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06301996123419742</v>
+        <v>0.05693641319910966</v>
       </c>
       <c r="C83">
-        <v>-0.00604740851535616</v>
+        <v>0.003779573164994201</v>
       </c>
       <c r="D83">
-        <v>-0.04245836305624089</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04597493176791934</v>
+      </c>
+      <c r="E83">
+        <v>0.002913985521130721</v>
+      </c>
+      <c r="F83">
+        <v>-0.03751642125007091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06117094920153984</v>
+        <v>0.05566992428368465</v>
       </c>
       <c r="C84">
-        <v>-0.01386938215449575</v>
+        <v>0.01107990307634177</v>
       </c>
       <c r="D84">
-        <v>-0.07031109368588406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07330480966688928</v>
+      </c>
+      <c r="E84">
+        <v>0.01287331822213042</v>
+      </c>
+      <c r="F84">
+        <v>0.01490266532165358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397699252484062</v>
+        <v>0.1350914962013405</v>
       </c>
       <c r="C85">
-        <v>-0.03102365512909633</v>
+        <v>0.03065096756241368</v>
       </c>
       <c r="D85">
-        <v>-0.0068601051931944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009606800585888482</v>
+      </c>
+      <c r="E85">
+        <v>0.03473058954256014</v>
+      </c>
+      <c r="F85">
+        <v>0.04895260714934916</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1004424019285742</v>
+        <v>0.093257623244191</v>
       </c>
       <c r="C86">
-        <v>0.001966811143256758</v>
+        <v>-0.005131991471681282</v>
       </c>
       <c r="D86">
-        <v>-0.01662695258377507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05234811152283884</v>
+      </c>
+      <c r="E86">
+        <v>0.2338789360884409</v>
+      </c>
+      <c r="F86">
+        <v>-0.8943063664317344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09602856766655334</v>
+        <v>0.09191444387301194</v>
       </c>
       <c r="C87">
-        <v>-0.02849433419916964</v>
+        <v>0.02030211669306441</v>
       </c>
       <c r="D87">
-        <v>-0.07098649465274622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09290242948450941</v>
+      </c>
+      <c r="E87">
+        <v>-0.05383510233551878</v>
+      </c>
+      <c r="F87">
+        <v>0.04814123973018043</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06250084039272415</v>
+        <v>0.06077747419459918</v>
       </c>
       <c r="C88">
-        <v>-0.005797575490778747</v>
+        <v>0.002881010832112724</v>
       </c>
       <c r="D88">
-        <v>-0.04911976690998374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04962403581546493</v>
+      </c>
+      <c r="E88">
+        <v>0.02485291678350653</v>
+      </c>
+      <c r="F88">
+        <v>0.01424346495335066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1174587767794069</v>
+        <v>0.1272050216440353</v>
       </c>
       <c r="C89">
-        <v>-0.006097842373471143</v>
+        <v>0.01440847377196838</v>
       </c>
       <c r="D89">
-        <v>0.2411542657359032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2420824397393367</v>
+      </c>
+      <c r="E89">
+        <v>-0.08988778548524447</v>
+      </c>
+      <c r="F89">
+        <v>-0.008448358044387785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1381276367309381</v>
+        <v>0.1530598543707414</v>
       </c>
       <c r="C90">
-        <v>-0.02635434379550027</v>
+        <v>0.03584505546416999</v>
       </c>
       <c r="D90">
-        <v>0.266628934844917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2670935627697278</v>
+      </c>
+      <c r="E90">
+        <v>-0.1135717907301483</v>
+      </c>
+      <c r="F90">
+        <v>-0.009360893232371107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1214802317068756</v>
+        <v>0.1197583265221151</v>
       </c>
       <c r="C91">
-        <v>-0.02170467111149972</v>
+        <v>0.02194065983040577</v>
       </c>
       <c r="D91">
-        <v>0.02037258993148653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01716941876148897</v>
+      </c>
+      <c r="E91">
+        <v>0.05360022546106183</v>
+      </c>
+      <c r="F91">
+        <v>-0.001273453796874791</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1383258041151947</v>
+        <v>0.1453414142065416</v>
       </c>
       <c r="C92">
-        <v>-0.017021334321135</v>
+        <v>0.02668070250755464</v>
       </c>
       <c r="D92">
-        <v>0.2984987785046436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2929839553277797</v>
+      </c>
+      <c r="E92">
+        <v>-0.1019715190109698</v>
+      </c>
+      <c r="F92">
+        <v>-0.01916758726852805</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1410120663871957</v>
+        <v>0.1543687435847122</v>
       </c>
       <c r="C93">
-        <v>-0.02246050603184709</v>
+        <v>0.03093895372556853</v>
       </c>
       <c r="D93">
-        <v>0.2653280657102755</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2633678668779063</v>
+      </c>
+      <c r="E93">
+        <v>-0.07401484770928861</v>
+      </c>
+      <c r="F93">
+        <v>0.003045952578636706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1335508134746991</v>
+        <v>0.125757771266795</v>
       </c>
       <c r="C94">
-        <v>-0.02851757087095612</v>
+        <v>0.02628458437225815</v>
       </c>
       <c r="D94">
-        <v>-0.03866244290566481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04157986201006662</v>
+      </c>
+      <c r="E94">
+        <v>0.05715851737405782</v>
+      </c>
+      <c r="F94">
+        <v>0.03226053576323901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1280169436910159</v>
+        <v>0.1303847989659014</v>
       </c>
       <c r="C95">
-        <v>-0.01093400780702779</v>
+        <v>0.0055008185863262</v>
       </c>
       <c r="D95">
-        <v>-0.08787497584940518</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09845205876434961</v>
+      </c>
+      <c r="E95">
+        <v>0.05816303156573034</v>
+      </c>
+      <c r="F95">
+        <v>0.002868916132245816</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.130038964974253</v>
+        <v>0.1231110003416599</v>
       </c>
       <c r="C96">
-        <v>0.9858208852239915</v>
+        <v>-0.9856708611058524</v>
       </c>
       <c r="D96">
-        <v>0.01882265098022997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05038338124376417</v>
+      </c>
+      <c r="E96">
+        <v>0.0504294541738139</v>
+      </c>
+      <c r="F96">
+        <v>0.04295094847508459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1938647833413324</v>
+        <v>0.1973386314434729</v>
       </c>
       <c r="C97">
-        <v>0.002056835769504713</v>
+        <v>-0.002161121343035625</v>
       </c>
       <c r="D97">
-        <v>0.03095294611228662</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03025819965435642</v>
+      </c>
+      <c r="E97">
+        <v>0.03395050902300647</v>
+      </c>
+      <c r="F97">
+        <v>-0.1192606404669158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2003806319905735</v>
+        <v>0.2060191072092617</v>
       </c>
       <c r="C98">
-        <v>-0.01331661143019971</v>
+        <v>0.009451009710558201</v>
       </c>
       <c r="D98">
-        <v>-0.01143530901914542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01389860365721112</v>
+      </c>
+      <c r="E98">
+        <v>-0.07774772942082829</v>
+      </c>
+      <c r="F98">
+        <v>-0.09545879474452224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05619354312734152</v>
+        <v>0.0553495054578771</v>
       </c>
       <c r="C99">
-        <v>0.001517009409511277</v>
+        <v>-0.003649311155153229</v>
       </c>
       <c r="D99">
-        <v>-0.03221490142650122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03961471682690809</v>
+      </c>
+      <c r="E99">
+        <v>0.02272534374134511</v>
+      </c>
+      <c r="F99">
+        <v>0.003405106294049131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1478019238157018</v>
+        <v>0.1329276693125843</v>
       </c>
       <c r="C100">
-        <v>0.03688874819440455</v>
+        <v>-0.04905763868789594</v>
       </c>
       <c r="D100">
-        <v>-0.3906952917007463</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3558421006028696</v>
+      </c>
+      <c r="E100">
+        <v>-0.8821103671139738</v>
+      </c>
+      <c r="F100">
+        <v>-0.1609606892820067</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02582910273262279</v>
+        <v>0.02843814289121139</v>
       </c>
       <c r="C101">
-        <v>-0.009938963189061149</v>
+        <v>0.009103343584014786</v>
       </c>
       <c r="D101">
-        <v>-0.02883435830748547</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02932799597404186</v>
+      </c>
+      <c r="E101">
+        <v>0.01655707304075801</v>
+      </c>
+      <c r="F101">
+        <v>-0.01428416695936573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
